--- a/BackTest/2019-10-31 BackTest ITC.xlsx
+++ b/BackTest/2019-10-31 BackTest ITC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>144.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>7</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L13" t="n">
         <v>144.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>7</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>144.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>7</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L15" t="n">
         <v>145.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>9</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>145.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>12</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
       <c r="L17" t="n">
         <v>145.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>146.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>12</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L19" t="n">
         <v>146.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>63.63636363636363</v>
+      </c>
       <c r="L20" t="n">
         <v>147.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>18</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L21" t="n">
         <v>147.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>18</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L22" t="n">
         <v>148.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>148.6</v>
@@ -1466,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="n">
-        <v>23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>148.8</v>
@@ -1515,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>36.36363636363637</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>149.2</v>
@@ -1564,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>36.36363636363637</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>149.8</v>
@@ -1613,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="K27" t="n">
-        <v>23.80952380952381</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L27" t="n">
         <v>150</v>
@@ -1662,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L28" t="n">
         <v>150.3</v>
@@ -1711,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="n">
-        <v>13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>150.3</v>
@@ -1760,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="K30" t="n">
-        <v>23.07692307692308</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>150.2</v>
@@ -1809,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="K31" t="n">
-        <v>23.07692307692308</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L31" t="n">
         <v>150.3</v>
@@ -1860,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>150.2</v>
@@ -1911,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="K33" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>150</v>
@@ -1962,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>150</v>
@@ -2013,7 +2035,7 @@
         <v>33</v>
       </c>
       <c r="K35" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>149.8</v>
